--- a/Xen Jakaria/Daily Work Progress_xen_zaki.xlsx
+++ b/Xen Jakaria/Daily Work Progress_xen_zaki.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-8\Designs_All\Xen Jakaria\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Nane:</t>
   </si>
@@ -120,12 +115,15 @@
   </si>
   <si>
     <t>Regulator Drafting Program:PLAN Drawing:Barrel Part</t>
+  </si>
+  <si>
+    <t>Regulator Drafting Program:PLAN Drawing:WingWall</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -274,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -309,7 +307,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -486,7 +484,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -494,20 +492,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="69.44140625" customWidth="1"/>
+    <col min="2" max="2" width="69.42578125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -523,7 +521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -534,7 +532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
@@ -545,7 +543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -556,7 +554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -567,7 +565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
@@ -578,7 +576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -589,7 +587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -600,7 +598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -611,7 +609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -622,7 +620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -633,7 +631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -644,7 +642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -655,7 +653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
@@ -666,7 +664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>44986</v>
       </c>
@@ -677,7 +675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>44986</v>
       </c>
@@ -688,7 +686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>44986</v>
       </c>
@@ -696,6 +694,17 @@
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>45017</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Xen Jakaria/Daily Work Progress_xen_zaki.xlsx
+++ b/Xen Jakaria/Daily Work Progress_xen_zaki.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Nane:</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Regulator Drafting Program:PLAN Drawing:Barrel Part</t>
+  </si>
+  <si>
+    <t>Regulator Drafting Program:PLAN Drawing:Wing Wall Part</t>
   </si>
 </sst>
 </file>
@@ -142,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -165,26 +168,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -194,14 +183,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,175 +516,186 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>44986</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <v>44986</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>44986</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="5">
+        <v>45017</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>45047</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Xen Jakaria/Daily Work Progress_xen_zaki.xlsx
+++ b/Xen Jakaria/Daily Work Progress_xen_zaki.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-8\Designs_All2\Xen Jakaria\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>Nane:</t>
   </si>
@@ -118,12 +123,15 @@
   </si>
   <si>
     <t>Regulator Drafting Program:PLAN Drawing:WingWall</t>
+  </si>
+  <si>
+    <t>Regulator Structural Design Day-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -178,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -200,6 +208,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,7 +495,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,20 +503,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="69.42578125" customWidth="1"/>
+    <col min="2" max="2" width="69.44140625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -521,7 +532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -532,7 +543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
@@ -543,7 +554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -554,7 +565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -565,7 +576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
@@ -576,7 +587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -587,7 +598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -598,7 +609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -609,7 +620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -620,7 +631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -631,7 +642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -642,7 +653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -653,7 +664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
@@ -664,7 +675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>44986</v>
       </c>
@@ -675,7 +686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>44986</v>
       </c>
@@ -686,7 +697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>44986</v>
       </c>
@@ -697,7 +708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>45017</v>
       </c>
@@ -705,6 +716,17 @@
         <v>32</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>44941</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Xen Jakaria/Daily Work Progress_xen_zaki.xlsx
+++ b/Xen Jakaria/Daily Work Progress_xen_zaki.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-8\Designs_All2\Xen Jakaria\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>Nane:</t>
   </si>
@@ -125,13 +120,22 @@
     <t>Regulator Drafting Program:PLAN Drawing:WingWall</t>
   </si>
   <si>
-    <t>Regulator Structural Design Day-1</t>
+    <t>start_hour</t>
+  </si>
+  <si>
+    <t>finish_hour</t>
+  </si>
+  <si>
+    <t>Regulator Structural Design Day-1 Coding</t>
+  </si>
+  <si>
+    <t>Regulator Structural Design Day-2 Coding</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -171,26 +175,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -200,16 +190,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -495,7 +488,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -503,230 +496,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="69.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="2" max="2" width="69.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>44986</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>44986</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>44986</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>45017</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>44941</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>44941</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>44942</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.3125</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>44942</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Xen Jakaria/Daily Work Progress_xen_zaki.xlsx
+++ b/Xen Jakaria/Daily Work Progress_xen_zaki.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-8\Designs_All2\Xen Jakaria\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,7 +140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -488,7 +493,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -498,20 +503,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="69.42578125" customWidth="1"/>
+    <col min="2" max="2" width="69.44140625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -522,7 +527,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -533,7 +538,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -550,7 +555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -563,7 +568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -576,7 +581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -589,7 +594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -602,7 +607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -615,7 +620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -628,7 +633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -641,7 +646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -654,7 +659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -667,7 +672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -680,7 +685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -693,7 +698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -706,7 +711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>44986</v>
       </c>
@@ -719,7 +724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>44986</v>
       </c>
@@ -732,7 +737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>44986</v>
       </c>
@@ -745,7 +750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>45017</v>
       </c>
@@ -758,7 +763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>44941</v>
       </c>
@@ -775,7 +780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>44941</v>
       </c>
@@ -792,7 +797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>44942</v>
       </c>
@@ -809,7 +814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>44942</v>
       </c>
@@ -819,7 +824,9 @@
       <c r="C23" s="8">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="8">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>5</v>
       </c>

--- a/Xen Jakaria/Daily Work Progress_xen_zaki.xlsx
+++ b/Xen Jakaria/Daily Work Progress_xen_zaki.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>Nane:</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>Regulator Structural Design Day-2 Coding</t>
+  </si>
+  <si>
+    <t>Regulator Structural Design Day-3 Coding</t>
+  </si>
+  <si>
+    <t>Regulator Structural Design Day-4 Coding</t>
   </si>
 </sst>
 </file>
@@ -184,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -208,6 +214,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -281,7 +290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -316,7 +325,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -501,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -831,6 +840,40 @@
         <v>5</v>
       </c>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>44943</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>44944</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A5">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/Xen Jakaria/Daily Work Progress_xen_zaki.xlsx
+++ b/Xen Jakaria/Daily Work Progress_xen_zaki.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>Nane:</t>
   </si>
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t>Regulator Structural Design Day-4 Coding</t>
+  </si>
+  <si>
+    <t>Regulator Structural Design Day-5 Coding</t>
+  </si>
+  <si>
+    <t>Regulator Structural Design Day-6 Coding</t>
+  </si>
+  <si>
+    <t>Regulator Structural Design Day-7 Coding</t>
   </si>
 </sst>
 </file>
@@ -190,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -217,6 +226,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -510,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -874,6 +886,54 @@
         <v>5</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>44945</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>44946</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>44947</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A5">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/Xen Jakaria/Daily Work Progress_xen_zaki.xlsx
+++ b/Xen Jakaria/Daily Work Progress_xen_zaki.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
   <si>
     <t>Nane:</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>Regulator Structural Design Day-7 Coding</t>
+  </si>
+  <si>
+    <t>Regulator Drafting Program Day6:Plan</t>
+  </si>
+  <si>
+    <t>Design of Khejurdangi Regulator</t>
   </si>
 </sst>
 </file>
@@ -522,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -930,7 +936,44 @@
       <c r="C28" s="10">
         <v>0</v>
       </c>
+      <c r="D28" s="10">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="E28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>44948</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>44949</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Xen Jakaria/Daily Work Progress_xen_zaki.xlsx
+++ b/Xen Jakaria/Daily Work Progress_xen_zaki.xlsx
@@ -12,7 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6336"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Daily_work_list" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="44">
   <si>
     <t>Nane:</t>
   </si>
@@ -205,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -237,11 +239,24 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -528,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,7 +867,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D23" s="8">
-        <v>0.16666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>5</v>
@@ -868,8 +883,8 @@
       <c r="C24" s="9">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D24" s="9">
-        <v>0.16666666666666666</v>
+      <c r="D24" s="8">
+        <v>0.70833333333333304</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>5</v>
@@ -885,8 +900,8 @@
       <c r="C25" s="9">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D25" s="9">
-        <v>0.16666666666666666</v>
+      <c r="D25" s="8">
+        <v>0.75</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>5</v>
@@ -902,8 +917,8 @@
       <c r="C26" s="9">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D26" s="9">
-        <v>0.16666666666666666</v>
+      <c r="D26" s="8">
+        <v>0.79166666666666696</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>5</v>
@@ -919,8 +934,8 @@
       <c r="C27" s="9">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D27" s="9">
-        <v>0.99930555555555556</v>
+      <c r="D27" s="8">
+        <v>0.83333333333333304</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>5</v>
@@ -933,8 +948,8 @@
       <c r="B28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="10">
-        <v>0</v>
+      <c r="C28" s="9">
+        <v>0.39583333333333331</v>
       </c>
       <c r="D28" s="10">
         <v>0.66666666666666663</v>
@@ -950,8 +965,8 @@
       <c r="B29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="10">
-        <v>0</v>
+      <c r="C29" s="9">
+        <v>0.39583333333333331</v>
       </c>
       <c r="D29" s="10">
         <v>0.66666666666666663</v>
@@ -967,13 +982,609 @@
       <c r="B30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="10">
-        <v>0</v>
+      <c r="C30" s="9">
+        <v>0.39583333333333331</v>
       </c>
       <c r="D30" s="10">
         <v>0.66666666666666663</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>44950</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="9">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>44951</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="9">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>44952</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="11">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>44953</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:A5">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="69.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>44986</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>44986</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>44986</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>45017</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>44941</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>44941</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>44942</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.3125</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>44942</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>44943</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>44944</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>44945</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>44946</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>44947</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>44948</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>44949</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="9">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>44950</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="9">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>44951</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="9">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>44952</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="11">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>44953</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -984,4 +1595,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Xen Jakaria/Daily Work Progress_xen_zaki.xlsx
+++ b/Xen Jakaria/Daily Work Progress_xen_zaki.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="45">
   <si>
     <t>Nane:</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Design of Khejurdangi Regulator</t>
+  </si>
+  <si>
+    <t>Counterfort Retaining Wall Coding:Day-1</t>
   </si>
 </sst>
 </file>
@@ -180,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -203,11 +206,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -240,6 +254,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -545,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1047,14 +1064,14 @@
       <c r="A34" s="5">
         <v>44953</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>43</v>
+      <c r="B34" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="C34" s="11">
         <v>0.125</v>
       </c>
       <c r="D34" s="10">
-        <v>0.83333333333333304</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>5</v>
